--- a/Documentación/DIAGRAMA DE GANTT.xlsx
+++ b/Documentación/DIAGRAMA DE GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A57765-E701-426C-AD2F-3EABFDB09186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D6C958-F2B8-4D17-B100-62518A4EED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Back-End" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>TAREAS</t>
   </si>
@@ -44,54 +44,18 @@
     <t>15 - 21 MAYO</t>
   </si>
   <si>
-    <t>Funcionalidad de las habilidades de los pokemons.</t>
-  </si>
-  <si>
-    <t>PLACAJE (DIEGO)</t>
-  </si>
-  <si>
-    <t>ESQUIVAR (ALEX) / CURAR (DIEGO)</t>
-  </si>
-  <si>
     <t>Gestion ataques maquina.</t>
   </si>
   <si>
     <t>ALEX</t>
   </si>
   <si>
-    <t>Gestion de barras de vida.</t>
-  </si>
-  <si>
-    <t>FUNCIONAMIENTO (ALEX)</t>
-  </si>
-  <si>
     <t>Carga interfaz del usuario.</t>
   </si>
   <si>
-    <t>Funcionamiento automático de las diferentes características dentro de la interfaz del juego.</t>
-  </si>
-  <si>
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>Definir Interfaz</t>
-  </si>
-  <si>
-    <t>BOTONES (RAFAEL)</t>
-  </si>
-  <si>
-    <t>Escenario</t>
-  </si>
-  <si>
-    <t>Pantallas inicio, ganar, perder, volver a jugar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INICIO (DIEGO) </t>
-  </si>
-  <si>
-    <t>GANAR (ALEX) / PERDER (ALEX) / VOLVER A JUGAR (RAFAEL)</t>
-  </si>
-  <si>
     <t>Modelo E-R</t>
   </si>
   <si>
@@ -131,13 +95,64 @@
     <t>Gestión de barras de vida</t>
   </si>
   <si>
-    <t xml:space="preserve">Tablas </t>
-  </si>
-  <si>
     <t>12 - 18 ABRIL</t>
   </si>
   <si>
     <t>Pliego de prescripciones técnicas</t>
+  </si>
+  <si>
+    <t>Funcionalidad de las habilidades de los pokemons (PLACAJE).</t>
+  </si>
+  <si>
+    <t>Funcionalidad de las habilidades de los pokemons (ESQUIVAR).</t>
+  </si>
+  <si>
+    <t>Funcionalidad de las habilidades de los pokemons (CURAR).</t>
+  </si>
+  <si>
+    <t>Funcionalidad de las habilidades de los pokemons (ELEMENTAL).</t>
+  </si>
+  <si>
+    <t>Funcionamiento automático de las diferentes características dentro de la interfaz del juego</t>
+  </si>
+  <si>
+    <t>Tablas Pokemons</t>
+  </si>
+  <si>
+    <t>Tablas Estadisticas Pokemons</t>
+  </si>
+  <si>
+    <t>Tablas Tipo Ataques Pokemons</t>
+  </si>
+  <si>
+    <t>Tablas Ataques Pokemons</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Interfaz (4 botones: Placaje, Esquivar, Curar, Elemental)</t>
+  </si>
+  <si>
+    <t>Gestión de barras de vida (Comprobar si estas muerto por cada turno)</t>
+  </si>
+  <si>
+    <t>Escenarios aleatorios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantallas </t>
+  </si>
+  <si>
+    <t>Pantallas (Inicio)</t>
+  </si>
+  <si>
+    <t>Pantallas (Ganar)</t>
+  </si>
+  <si>
+    <t>Pantallas (Perder)</t>
+  </si>
+  <si>
+    <t>Pantallas (Volver a jugar)</t>
   </si>
 </sst>
 </file>
@@ -236,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -373,17 +388,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,72 +469,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,10 +714,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:O6"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -692,63 +726,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>17</v>
       </c>
@@ -815,104 +849,138 @@
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="16"/>
-    </row>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="P10:V10"/>
+    <mergeCell ref="P9:V9"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="P8:V8"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="I6:O6"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="I1:O2"/>
     <mergeCell ref="P1:V2"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B4C39E-7941-4CFB-9A5B-E00A5EB9FB6B}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -921,63 +989,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="7" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
     </row>
     <row r="2" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+    </row>
+    <row r="3" spans="1:22" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>17</v>
       </c>
@@ -1044,89 +1112,165 @@
     </row>
     <row r="4" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="16"/>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="10"/>
     </row>
     <row r="7" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="P7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="D4:H4"/>
+  <mergeCells count="14">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="P12:V12"/>
+    <mergeCell ref="P13:V13"/>
+    <mergeCell ref="P14:V14"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="P6:V6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="I1:O2"/>
     <mergeCell ref="P1:V2"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1134,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{966CA42F-B854-4D61-BED7-AA0750F9DAFE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1146,31 +1290,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>17</v>
       </c>
@@ -1195,47 +1339,86 @@
     </row>
     <row r="4" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D9:H9"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1256,47 +1439,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>24</v>
       </c>
@@ -1341,55 +1524,55 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B6:H6"/>
     <mergeCell ref="I1:O2"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1400,7 +1583,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1409,47 +1592,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1">
         <v>17</v>
       </c>
@@ -1494,92 +1677,91 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="25" t="s">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="I5:O5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
@@ -1588,6 +1770,7 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
